--- a/natmiOut/OldD4/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.76094625116678</v>
+        <v>5.918195</v>
       </c>
       <c r="H2">
-        <v>5.76094625116678</v>
+        <v>17.754585</v>
       </c>
       <c r="I2">
-        <v>0.2486891758710742</v>
+        <v>0.2395278098354859</v>
       </c>
       <c r="J2">
-        <v>0.2486891758710742</v>
+        <v>0.2548411403336102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.48601611835878</v>
+        <v>2.890020333333334</v>
       </c>
       <c r="N2">
-        <v>1.48601611835878</v>
+        <v>8.670061</v>
       </c>
       <c r="O2">
-        <v>0.4907805965738579</v>
+        <v>0.6127585034662664</v>
       </c>
       <c r="P2">
-        <v>0.4907805965738579</v>
+        <v>0.6135777502279139</v>
       </c>
       <c r="Q2">
-        <v>8.560858986232423</v>
+        <v>17.10370388663167</v>
       </c>
       <c r="R2">
-        <v>8.560858986232423</v>
+        <v>153.933334979685</v>
       </c>
       <c r="S2">
-        <v>0.1220518220954668</v>
+        <v>0.1467727022933448</v>
       </c>
       <c r="T2">
-        <v>0.1220518220954668</v>
+        <v>0.1563648535514126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,57 +596,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.76094625116678</v>
+        <v>5.918195</v>
       </c>
       <c r="H3">
-        <v>5.76094625116678</v>
+        <v>17.754585</v>
       </c>
       <c r="I3">
-        <v>0.2486891758710742</v>
+        <v>0.2395278098354859</v>
       </c>
       <c r="J3">
-        <v>0.2486891758710742</v>
+        <v>0.2548411403336102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.54184628845328</v>
+        <v>1.807497666666667</v>
       </c>
       <c r="N3">
-        <v>1.54184628845328</v>
+        <v>5.422493</v>
       </c>
       <c r="O3">
-        <v>0.5092194034261421</v>
+        <v>0.3832359075370179</v>
       </c>
       <c r="P3">
-        <v>0.5092194034261421</v>
+        <v>0.3837482868421124</v>
       </c>
       <c r="Q3">
-        <v>8.882493595340337</v>
+        <v>10.69712365337833</v>
       </c>
       <c r="R3">
-        <v>8.882493595340337</v>
+        <v>96.274112880405</v>
       </c>
       <c r="S3">
-        <v>0.1266373537756073</v>
+        <v>0.09179565758265669</v>
       </c>
       <c r="T3">
-        <v>0.1266373537756073</v>
+        <v>0.09779485101991324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.22431219039406</v>
+        <v>5.918195</v>
       </c>
       <c r="H4">
-        <v>6.22431219039406</v>
+        <v>17.754585</v>
       </c>
       <c r="I4">
-        <v>0.2686918088638433</v>
+        <v>0.2395278098354859</v>
       </c>
       <c r="J4">
-        <v>0.2686918088638433</v>
+        <v>0.2548411403336102</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>1.48601611835878</v>
+        <v>0.018892</v>
       </c>
       <c r="N4">
-        <v>1.48601611835878</v>
+        <v>0.037784</v>
       </c>
       <c r="O4">
-        <v>0.4907805965738579</v>
+        <v>0.004005588996715721</v>
       </c>
       <c r="P4">
-        <v>0.4907805965738579</v>
+        <v>0.002673962929973791</v>
       </c>
       <c r="Q4">
-        <v>9.249428240622615</v>
+        <v>0.11180653994</v>
       </c>
       <c r="R4">
-        <v>9.249428240622615</v>
+        <v>0.6708392396399999</v>
       </c>
       <c r="S4">
-        <v>0.131868726248706</v>
+        <v>0.0009594499594844382</v>
       </c>
       <c r="T4">
-        <v>0.131868726248706</v>
+        <v>0.0006814357622843222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.22431219039406</v>
+        <v>6.676481666666667</v>
       </c>
       <c r="H5">
-        <v>6.22431219039406</v>
+        <v>20.029445</v>
       </c>
       <c r="I5">
-        <v>0.2686918088638433</v>
+        <v>0.2702180362464301</v>
       </c>
       <c r="J5">
-        <v>0.2686918088638433</v>
+        <v>0.287493433614434</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.54184628845328</v>
+        <v>2.890020333333334</v>
       </c>
       <c r="N5">
-        <v>1.54184628845328</v>
+        <v>8.670061</v>
       </c>
       <c r="O5">
-        <v>0.5092194034261421</v>
+        <v>0.6127585034662664</v>
       </c>
       <c r="P5">
-        <v>0.5092194034261421</v>
+        <v>0.6135777502279139</v>
       </c>
       <c r="Q5">
-        <v>9.596932648933587</v>
+        <v>19.29516777179389</v>
       </c>
       <c r="R5">
-        <v>9.596932648933587</v>
+        <v>173.656509946145</v>
       </c>
       <c r="S5">
-        <v>0.1368230826151373</v>
+        <v>0.1655783994999559</v>
       </c>
       <c r="T5">
-        <v>0.1368230826151373</v>
+        <v>0.1763995742024426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.19101441959151</v>
+        <v>6.676481666666667</v>
       </c>
       <c r="H6">
-        <v>3.19101441959151</v>
+        <v>20.029445</v>
       </c>
       <c r="I6">
-        <v>0.1377500694508654</v>
+        <v>0.2702180362464301</v>
       </c>
       <c r="J6">
-        <v>0.1377500694508654</v>
+        <v>0.287493433614434</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.48601611835878</v>
+        <v>1.807497666666667</v>
       </c>
       <c r="N6">
-        <v>1.48601611835878</v>
+        <v>5.422493</v>
       </c>
       <c r="O6">
-        <v>0.4907805965738579</v>
+        <v>0.3832359075370179</v>
       </c>
       <c r="P6">
-        <v>0.4907805965738579</v>
+        <v>0.3837482868421124</v>
       </c>
       <c r="Q6">
-        <v>4.741898861428271</v>
+        <v>12.06772503404278</v>
       </c>
       <c r="R6">
-        <v>4.741898861428271</v>
+        <v>108.609525306385</v>
       </c>
       <c r="S6">
-        <v>0.06760506126318608</v>
+        <v>0.1035572543537714</v>
       </c>
       <c r="T6">
-        <v>0.06760506126318608</v>
+        <v>0.1103251126278956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.19101441959151</v>
+        <v>6.676481666666667</v>
       </c>
       <c r="H7">
-        <v>3.19101441959151</v>
+        <v>20.029445</v>
       </c>
       <c r="I7">
-        <v>0.1377500694508654</v>
+        <v>0.2702180362464301</v>
       </c>
       <c r="J7">
-        <v>0.1377500694508654</v>
+        <v>0.287493433614434</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>1.54184628845328</v>
+        <v>0.018892</v>
       </c>
       <c r="N7">
-        <v>1.54184628845328</v>
+        <v>0.037784</v>
       </c>
       <c r="O7">
-        <v>0.5092194034261421</v>
+        <v>0.004005588996715721</v>
       </c>
       <c r="P7">
-        <v>0.5092194034261421</v>
+        <v>0.002673962929973791</v>
       </c>
       <c r="Q7">
-        <v>4.920053739248067</v>
+        <v>0.1261320916466667</v>
       </c>
       <c r="R7">
-        <v>4.920053739248067</v>
+        <v>0.7567925498799999</v>
       </c>
       <c r="S7">
-        <v>0.07014500818767933</v>
+        <v>0.001082382392702831</v>
       </c>
       <c r="T7">
-        <v>0.07014500818767933</v>
+        <v>0.0007687467840958776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.53781899696756</v>
+        <v>4.101432</v>
       </c>
       <c r="H8">
-        <v>3.53781899696756</v>
+        <v>12.304296</v>
       </c>
       <c r="I8">
-        <v>0.1527209684622038</v>
+        <v>0.1659977449457439</v>
       </c>
       <c r="J8">
-        <v>0.1527209684622038</v>
+        <v>0.1766102008941509</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.48601611835878</v>
+        <v>2.890020333333334</v>
       </c>
       <c r="N8">
-        <v>1.48601611835878</v>
+        <v>8.670061</v>
       </c>
       <c r="O8">
-        <v>0.4907805965738579</v>
+        <v>0.6127585034662664</v>
       </c>
       <c r="P8">
-        <v>0.4907805965738579</v>
+        <v>0.6135777502279139</v>
       </c>
       <c r="Q8">
-        <v>5.257256053329685</v>
+        <v>11.853221875784</v>
       </c>
       <c r="R8">
-        <v>5.257256053329685</v>
+        <v>106.678996882056</v>
       </c>
       <c r="S8">
-        <v>0.07495248801121769</v>
+        <v>0.101716529771729</v>
       </c>
       <c r="T8">
-        <v>0.07495248801121769</v>
+        <v>0.108364089731933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.53781899696756</v>
+        <v>4.101432</v>
       </c>
       <c r="H9">
-        <v>3.53781899696756</v>
+        <v>12.304296</v>
       </c>
       <c r="I9">
-        <v>0.1527209684622038</v>
+        <v>0.1659977449457439</v>
       </c>
       <c r="J9">
-        <v>0.1527209684622038</v>
+        <v>0.1766102008941509</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.54184628845328</v>
+        <v>1.807497666666667</v>
       </c>
       <c r="N9">
-        <v>1.54184628845328</v>
+        <v>5.422493</v>
       </c>
       <c r="O9">
-        <v>0.5092194034261421</v>
+        <v>0.3832359075370179</v>
       </c>
       <c r="P9">
-        <v>0.5092194034261421</v>
+        <v>0.3837482868421124</v>
       </c>
       <c r="Q9">
-        <v>5.454773089693939</v>
+        <v>7.413328769992</v>
       </c>
       <c r="R9">
-        <v>5.454773089693939</v>
+        <v>66.71995892992801</v>
       </c>
       <c r="S9">
-        <v>0.07776848045098607</v>
+        <v>0.06361629643338058</v>
       </c>
       <c r="T9">
-        <v>0.07776848045098607</v>
+        <v>0.06777386203197172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.45115540681686</v>
+        <v>4.101432</v>
       </c>
       <c r="H10">
-        <v>4.45115540681686</v>
+        <v>12.304296</v>
       </c>
       <c r="I10">
-        <v>0.1921479773520134</v>
+        <v>0.1659977449457439</v>
       </c>
       <c r="J10">
-        <v>0.1921479773520134</v>
+        <v>0.1766102008941509</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>1.48601611835878</v>
+        <v>0.018892</v>
       </c>
       <c r="N10">
-        <v>1.48601611835878</v>
+        <v>0.037784</v>
       </c>
       <c r="O10">
-        <v>0.4907805965738579</v>
+        <v>0.004005588996715721</v>
       </c>
       <c r="P10">
-        <v>0.4907805965738579</v>
+        <v>0.002673962929973791</v>
       </c>
       <c r="Q10">
-        <v>6.614488679849686</v>
+        <v>0.077484253344</v>
       </c>
       <c r="R10">
-        <v>6.614488679849686</v>
+        <v>0.464905520064</v>
       </c>
       <c r="S10">
-        <v>0.09430249895528124</v>
+        <v>0.0006649187406342945</v>
       </c>
       <c r="T10">
-        <v>0.09430249895528124</v>
+        <v>0.0004722491302461836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.557602666666666</v>
+      </c>
+      <c r="H11">
+        <v>10.672808</v>
+      </c>
+      <c r="I11">
+        <v>0.143987275683135</v>
+      </c>
+      <c r="J11">
+        <v>0.1531925731455665</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.890020333333334</v>
+      </c>
+      <c r="N11">
+        <v>8.670061</v>
+      </c>
+      <c r="O11">
+        <v>0.6127585034662664</v>
+      </c>
+      <c r="P11">
+        <v>0.6135777502279139</v>
+      </c>
+      <c r="Q11">
+        <v>10.28154404458756</v>
+      </c>
+      <c r="R11">
+        <v>92.533896401288</v>
+      </c>
+      <c r="S11">
+        <v>0.0882294275657825</v>
+      </c>
+      <c r="T11">
+        <v>0.09399555438228183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.45115540681686</v>
-      </c>
-      <c r="H11">
-        <v>4.45115540681686</v>
-      </c>
-      <c r="I11">
-        <v>0.1921479773520134</v>
-      </c>
-      <c r="J11">
-        <v>0.1921479773520134</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.54184628845328</v>
-      </c>
-      <c r="N11">
-        <v>1.54184628845328</v>
-      </c>
-      <c r="O11">
-        <v>0.5092194034261421</v>
-      </c>
-      <c r="P11">
-        <v>0.5092194034261421</v>
-      </c>
-      <c r="Q11">
-        <v>6.862997443329325</v>
-      </c>
-      <c r="R11">
-        <v>6.862997443329325</v>
-      </c>
-      <c r="S11">
-        <v>0.09784547839673212</v>
-      </c>
-      <c r="T11">
-        <v>0.09784547839673212</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.557602666666666</v>
+      </c>
+      <c r="H12">
+        <v>10.672808</v>
+      </c>
+      <c r="I12">
+        <v>0.143987275683135</v>
+      </c>
+      <c r="J12">
+        <v>0.1531925731455665</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.807497666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.422493</v>
+      </c>
+      <c r="O12">
+        <v>0.3832359075370179</v>
+      </c>
+      <c r="P12">
+        <v>0.3837482868421124</v>
+      </c>
+      <c r="Q12">
+        <v>6.430358518927111</v>
+      </c>
+      <c r="R12">
+        <v>57.873226670344</v>
+      </c>
+      <c r="S12">
+        <v>0.05518109427020901</v>
+      </c>
+      <c r="T12">
+        <v>0.05878738750154613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.557602666666666</v>
+      </c>
+      <c r="H13">
+        <v>10.672808</v>
+      </c>
+      <c r="I13">
+        <v>0.143987275683135</v>
+      </c>
+      <c r="J13">
+        <v>0.1531925731455665</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.018892</v>
+      </c>
+      <c r="N13">
+        <v>0.037784</v>
+      </c>
+      <c r="O13">
+        <v>0.004005588996715721</v>
+      </c>
+      <c r="P13">
+        <v>0.002673962929973791</v>
+      </c>
+      <c r="Q13">
+        <v>0.06721022957866667</v>
+      </c>
+      <c r="R13">
+        <v>0.403261377472</v>
+      </c>
+      <c r="S13">
+        <v>0.0005767538471434386</v>
+      </c>
+      <c r="T13">
+        <v>0.0004096312617385432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.454046</v>
+      </c>
+      <c r="H14">
+        <v>8.908092</v>
+      </c>
+      <c r="I14">
+        <v>0.180269133289205</v>
+      </c>
+      <c r="J14">
+        <v>0.1278626520122385</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.890020333333334</v>
+      </c>
+      <c r="N14">
+        <v>8.670061</v>
+      </c>
+      <c r="O14">
+        <v>0.6127585034662664</v>
+      </c>
+      <c r="P14">
+        <v>0.6135777502279139</v>
+      </c>
+      <c r="Q14">
+        <v>12.872283505602</v>
+      </c>
+      <c r="R14">
+        <v>77.23370103361201</v>
+      </c>
+      <c r="S14">
+        <v>0.1104614443354542</v>
+      </c>
+      <c r="T14">
+        <v>0.07845367835984397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.454046</v>
+      </c>
+      <c r="H15">
+        <v>8.908092</v>
+      </c>
+      <c r="I15">
+        <v>0.180269133289205</v>
+      </c>
+      <c r="J15">
+        <v>0.1278626520122385</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.807497666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.422493</v>
+      </c>
+      <c r="O15">
+        <v>0.3832359075370179</v>
+      </c>
+      <c r="P15">
+        <v>0.3837482868421124</v>
+      </c>
+      <c r="Q15">
+        <v>8.050677752225999</v>
+      </c>
+      <c r="R15">
+        <v>48.304066513356</v>
+      </c>
+      <c r="S15">
+        <v>0.06908560489700014</v>
+      </c>
+      <c r="T15">
+        <v>0.04906707366078571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.454046</v>
+      </c>
+      <c r="H16">
+        <v>8.908092</v>
+      </c>
+      <c r="I16">
+        <v>0.180269133289205</v>
+      </c>
+      <c r="J16">
+        <v>0.1278626520122385</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.018892</v>
+      </c>
+      <c r="N16">
+        <v>0.037784</v>
+      </c>
+      <c r="O16">
+        <v>0.004005588996715721</v>
+      </c>
+      <c r="P16">
+        <v>0.002673962929973791</v>
+      </c>
+      <c r="Q16">
+        <v>0.084145837032</v>
+      </c>
+      <c r="R16">
+        <v>0.336583348128</v>
+      </c>
+      <c r="S16">
+        <v>0.0007220840567507195</v>
+      </c>
+      <c r="T16">
+        <v>0.0003418999916088646</v>
       </c>
     </row>
   </sheetData>
